--- a/Seismic_threeDof_structure/Time_domain_signals/spectra_DIN_zone3.xlsx
+++ b/Seismic_threeDof_structure/Time_domain_signals/spectra_DIN_zone3.xlsx
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="spectra_DIN_zone3" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>,</t>
   </si>
@@ -102,13 +103,61 @@
   </si>
   <si>
     <t>T (s)</t>
+  </si>
+  <si>
+    <t>Scaled Earthquakes</t>
+  </si>
+  <si>
+    <t>Record Sequence Number: 215 </t>
+  </si>
+  <si>
+    <t>Earthquake Name: Livermore-01 </t>
+  </si>
+  <si>
+    <t>Station Name: San Ramon Fire Station </t>
+  </si>
+  <si>
+    <t>Result ID: 1 </t>
+  </si>
+  <si>
+    <t>Record Sequence Number: 4346 </t>
+  </si>
+  <si>
+    <t>Earthquake Name: Umbria Marche, Italy </t>
+  </si>
+  <si>
+    <t>Station Name: Bevagna </t>
+  </si>
+  <si>
+    <t>Result ID: 10 </t>
+  </si>
+  <si>
+    <t>Scale Factor: 1.20070033 </t>
+  </si>
+  <si>
+    <t>Record Sequence Number: 8837 </t>
+  </si>
+  <si>
+    <t>Earthquake Name: 14383980 </t>
+  </si>
+  <si>
+    <t>Station Name: Rio Hondo </t>
+  </si>
+  <si>
+    <t>Result ID: 19 </t>
+  </si>
+  <si>
+    <t>Scale Factor: 2.70675138 </t>
+  </si>
+  <si>
+    <t>Scale Factor: 1.762506</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +292,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +477,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC9F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -585,8 +646,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1692,6 +1759,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>183676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C817CF04-141A-4332-86FB-DDBD2C5EF71D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="4381500"/>
+          <a:ext cx="5400000" cy="3612676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>34251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1532E3D6-E067-42FF-910B-DA29D350C781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="8410576"/>
+          <a:ext cx="5400000" cy="3625175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E657DD9-8382-4BAE-ABEF-67F5FC13B1C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="381000"/>
+          <a:ext cx="5400000" cy="3573461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2132,7 +2336,7 @@
   <dimension ref="A4:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C31"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,9 +2713,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
